--- a/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy Delivery\Gerenciamento de Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A718E2C5-5FC4-4B5C-95A3-B1F962296A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F270B-473F-4674-852E-09E1AED29299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="289">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2775,13 +2775,7 @@
     <t>Revisão (1.0)</t>
   </si>
   <si>
-    <t>Edson Murakami</t>
-  </si>
-  <si>
     <t>HD - Healthy Delivery</t>
-  </si>
-  <si>
-    <t>murakami@ifsp.edu.br</t>
   </si>
   <si>
     <t>Manter Produtos</t>
@@ -4111,53 +4105,53 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6582,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,7 +6596,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="152"/>
       <c r="C2" s="152"/>
@@ -6634,10 +6628,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6721,7 +6715,7 @@
     <hyperlink ref="C7" r:id="rId1" xr:uid="{3B07CDE7-F8BC-4FD4-980C-E906050D61F7}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{6DE4B081-41BB-4E72-8C04-E7F8B166DA06}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{430694B8-C8EB-4940-8AE3-F420FEA86902}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{76E3A7EC-A220-4D38-8A14-CE50FC6AAF6B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{97E77DC1-5DD9-48DF-A363-E35C54A440D2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId5"/>
@@ -6732,7 +6726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -6860,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H5" s="130">
         <v>10</v>
@@ -6896,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H6" s="130">
         <v>10</v>
@@ -6932,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H7" s="130">
         <v>7</v>
@@ -6968,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H8" s="130">
         <v>5</v>
@@ -7004,7 +6998,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H9" s="130">
         <v>7</v>
@@ -8063,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="93">
         <v>44144</v>
@@ -8099,15 +8093,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D6" s="93"/>
       <c r="E6" s="94"/>
       <c r="F6" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
@@ -8120,15 +8114,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="94"/>
       <c r="F7" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
@@ -8141,15 +8135,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="93" t="s">
         <v>271</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>273</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="94"/>
       <c r="F8" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8162,15 +8156,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="94"/>
       <c r="F9" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
@@ -9359,10 +9353,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="183"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -9474,137 +9468,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="189" t="s">
+      <c r="A41" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="189"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="185"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="185"/>
     </row>
     <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="186"/>
     </row>
     <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="191" t="s">
+      <c r="A43" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
     </row>
     <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="192"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="185"/>
-      <c r="K46" s="185"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="80"/>
-      <c r="C47" s="186" t="s">
+      <c r="C47" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="186"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
     </row>
     <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="179" t="s">
+      <c r="A48" s="184"/>
+      <c r="B48" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="179" t="s">
+      <c r="C48" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="179" t="s">
+      <c r="E48" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="179" t="s">
+      <c r="F48" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="179" t="s">
+      <c r="G48" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="180" t="s">
+      <c r="H48" s="191" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="181"/>
-      <c r="J48" s="181"/>
-      <c r="K48" s="181"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="192"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="179"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="179"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="187" t="s">
+      <c r="A49" s="184"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="188"/>
+      <c r="I49" s="183"/>
       <c r="J49" s="73" t="s">
         <v>129</v>
       </c>
@@ -9617,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C50" s="74">
         <v>44197</v>
@@ -9635,11 +9629,11 @@
       <c r="G50" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="177"/>
-      <c r="I50" s="178"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="190"/>
       <c r="J50" s="79"/>
       <c r="K50" s="79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="72" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9647,7 +9641,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C51" s="74">
         <v>44197</v>
@@ -9669,7 +9663,7 @@
       <c r="I51" s="78"/>
       <c r="J51" s="79"/>
       <c r="K51" s="79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9679,7 +9673,7 @@
       <c r="D52" s="75"/>
       <c r="E52" s="75"/>
       <c r="F52" s="76" t="e">
-        <f t="shared" ref="F51:F58" si="0">IF(OR((CODE($D52)*CODE($E52))=$D$36,(CODE($D52)*CODE($E52))=$D$35),$D$15,IF(OR((CODE($D52)*CODE($E52))=$D$34,(CODE($D52)*CODE($E52))=$D$37),$D$16,IF(OR((CODE($D52)*CODE($E52))=$D$38,(CODE($D52)*CODE($E52))=$D$39),$D$17,)))</f>
+        <f t="shared" ref="F52:F58" si="0">IF(OR((CODE($D52)*CODE($E52))=$D$36,(CODE($D52)*CODE($E52))=$D$35),$D$15,IF(OR((CODE($D52)*CODE($E52))=$D$34,(CODE($D52)*CODE($E52))=$D$37),$D$16,IF(OR((CODE($D52)*CODE($E52))=$D$38,(CODE($D52)*CODE($E52))=$D$39),$D$17,)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G52" s="75"/>
@@ -9795,8 +9789,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="178"/>
+      <c r="H59" s="189"/>
+      <c r="I59" s="190"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -9811,13 +9805,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="178"/>
+      <c r="H60" s="189"/>
+      <c r="I60" s="190"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -9829,15 +9832,6 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9922,13 +9916,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="93">
         <v>44146</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10662,7 +10656,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E9" s="106" t="s">
         <v>147</v>
@@ -10692,13 +10686,13 @@
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E10" s="106" t="s">
         <v>148</v>
@@ -10722,13 +10716,13 @@
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E11" s="106" t="s">
         <v>94</v>
@@ -10749,13 +10743,13 @@
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B12" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E12" s="106" t="s">
         <v>94</v>
@@ -10784,13 +10778,13 @@
     </row>
     <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E13" s="106" t="s">
         <v>148</v>
@@ -10819,7 +10813,7 @@
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" s="106" t="s">
         <v>94</v>
@@ -11030,7 +11024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F270B-473F-4674-852E-09E1AED29299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95CC0D-2A36-4912-903D-CA07C448C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -2769,9 +2769,6 @@
     <t>feliper297@gmail.com</t>
   </si>
   <si>
-    <t>alhinaa@gmail.com</t>
-  </si>
-  <si>
     <t>Revisão (1.0)</t>
   </si>
   <si>
@@ -2817,9 +2814,6 @@
     <t>Falta de comunicação com a equipe</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Fazer reuniões semanais                              2. Utilizar redes de comunicação (facebook, whatsapp, etc)                                    </t>
-  </si>
-  <si>
     <t>Sobrecarga de trabalho das pessoas envolvidas</t>
   </si>
   <si>
@@ -2860,6 +2854,12 @@
   </si>
   <si>
     <t>gerenciar categoria</t>
+  </si>
+  <si>
+    <t>alhinaa.25@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fazer reuniões semanais                              2. Utilizar redes de comunicação (facebook, whatsapp, etc)                                                                     </t>
   </si>
 </sst>
 </file>
@@ -4105,6 +4105,21 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4126,9 +4141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4140,18 +4152,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C5:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="152" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="152"/>
       <c r="C2" s="152"/>
@@ -6620,7 +6620,7 @@
         <v>253</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,8 +6726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H5" s="130">
         <v>10</v>
@@ -6890,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="130">
         <v>10</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="130">
         <v>7</v>
@@ -6962,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H8" s="130">
         <v>5</v>
@@ -6992,13 +6992,13 @@
         <v>193</v>
       </c>
       <c r="D9" s="133">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F9" s="127">
         <v>5</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H9" s="130">
         <v>7</v>
@@ -7028,7 +7028,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="127"/>
       <c r="G10" s="140"/>
@@ -7049,7 +7049,7 @@
       <c r="C11" s="155"/>
       <c r="D11" s="131">
         <f>SUM(D5:D10)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11" s="128"/>
       <c r="G11" s="140"/>
@@ -7684,7 +7684,7 @@
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D57" s="143">
         <f>SUM(D11,D22,D46,D56)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7711,8 +7711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="B4" s="147">
         <f>'Backlog Produto'!$D$57</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>13</v>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B9" s="144">
         <f>B11/2</f>
-        <v>2.2000000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>247</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="B10" s="146">
         <f>B4+(B4*B5)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>13</v>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B11" s="145">
         <f>B10/B8*2</f>
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>28</v>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="B12" s="144">
         <f>B11/4</f>
-        <v>1.1000000000000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>52</v>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B16" s="5">
         <f>B10*B15</f>
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B19" s="148">
         <f>B16+B18</f>
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B21" s="7">
         <f>B19*B20</f>
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="B22" s="148">
         <f>B19+B21</f>
-        <v>1056</v>
+        <v>1224</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -7941,7 +7941,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7997,7 +7997,7 @@
       <c r="J2" s="172"/>
       <c r="K2" s="82">
         <f>Planejamento!$B$10</f>
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="93">
         <v>44144</v>
@@ -8085,7 +8085,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -8093,15 +8093,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94">
+        <v>6</v>
+      </c>
+      <c r="F6" s="95" t="s">
         <v>271</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95" t="s">
-        <v>272</v>
       </c>
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
@@ -8114,15 +8116,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94">
+        <v>6</v>
+      </c>
+      <c r="F7" s="95" t="s">
         <v>271</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95" t="s">
-        <v>272</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
@@ -8135,15 +8139,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94">
+        <v>7</v>
+      </c>
+      <c r="F8" s="95" t="s">
         <v>271</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95" t="s">
-        <v>272</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8156,15 +8162,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="94">
+        <v>9</v>
+      </c>
+      <c r="F9" s="95" t="s">
         <v>271</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
-        <v>272</v>
       </c>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
@@ -8254,7 +8262,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="49">
         <f>SUM(E5:E14)</f>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="48"/>
@@ -8323,8 +8331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9353,10 +9361,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="178"/>
+      <c r="E33" s="183"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -9468,137 +9476,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="185" t="s">
+      <c r="A41" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="189"/>
     </row>
     <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
     </row>
     <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187" t="s">
+      <c r="A43" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="187"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="191"/>
     </row>
     <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188" t="s">
+      <c r="A44" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="188"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="192"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="179" t="s">
+      <c r="A46" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="185"/>
+      <c r="K46" s="185"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="80"/>
-      <c r="C47" s="181" t="s">
+      <c r="C47" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="186"/>
     </row>
     <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="184"/>
-      <c r="B48" s="184" t="s">
+      <c r="A48" s="179"/>
+      <c r="B48" s="179" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="184" t="s">
+      <c r="C48" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="184" t="s">
+      <c r="D48" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="184" t="s">
+      <c r="E48" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="184" t="s">
+      <c r="F48" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="184" t="s">
+      <c r="G48" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="191" t="s">
+      <c r="H48" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="192"/>
-      <c r="J48" s="192"/>
-      <c r="K48" s="192"/>
+      <c r="I48" s="181"/>
+      <c r="J48" s="181"/>
+      <c r="K48" s="181"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="182" t="s">
+      <c r="A49" s="179"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="183"/>
+      <c r="I49" s="188"/>
       <c r="J49" s="73" t="s">
         <v>129</v>
       </c>
@@ -9611,10 +9619,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C50" s="74">
-        <v>44197</v>
+        <v>44157</v>
       </c>
       <c r="D50" s="75" t="s">
         <v>94</v>
@@ -9629,11 +9637,11 @@
       <c r="G50" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="189"/>
-      <c r="I50" s="190"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="178"/>
       <c r="J50" s="79"/>
       <c r="K50" s="79" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="72" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9641,10 +9649,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C51" s="74">
-        <v>44197</v>
+        <v>44181</v>
       </c>
       <c r="D51" s="75" t="s">
         <v>94</v>
@@ -9663,7 +9671,7 @@
       <c r="I51" s="78"/>
       <c r="J51" s="79"/>
       <c r="K51" s="79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9789,8 +9797,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="189"/>
-      <c r="I59" s="190"/>
+      <c r="H59" s="177"/>
+      <c r="I59" s="178"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -9805,22 +9813,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="190"/>
+      <c r="H60" s="177"/>
+      <c r="I60" s="178"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -9832,6 +9831,15 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9916,13 +9924,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="93">
         <v>44146</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10656,7 +10664,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E9" s="106" t="s">
         <v>147</v>
@@ -10686,13 +10694,13 @@
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B10" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" s="106" t="s">
         <v>148</v>
@@ -10716,13 +10724,13 @@
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E11" s="106" t="s">
         <v>94</v>
@@ -10743,13 +10751,13 @@
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B12" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E12" s="106" t="s">
         <v>94</v>
@@ -10778,13 +10786,13 @@
     </row>
     <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E13" s="106" t="s">
         <v>148</v>
@@ -10813,7 +10821,7 @@
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B14" s="106" t="s">
         <v>94</v>
@@ -11024,7 +11032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95CC0D-2A36-4912-903D-CA07C448C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C1DDD-1728-409A-9089-3034EC6BD3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -2670,9 +2670,6 @@
     <t>Preparar Ambiente de Desenvolvimento</t>
   </si>
   <si>
-    <t>Especificar UC01-Manter Clubes (escolhido para testar a arquitetura)</t>
-  </si>
-  <si>
     <t>Modelar UC1 e Arquitetura</t>
   </si>
   <si>
@@ -2860,6 +2857,9 @@
   </si>
   <si>
     <t xml:space="preserve">1. Fazer reuniões semanais                              2. Utilizar redes de comunicação (facebook, whatsapp, etc)                                                                     </t>
+  </si>
+  <si>
+    <t>Especificar UC01-Manter Produtos(escolhido para testar a arquitetura)</t>
   </si>
 </sst>
 </file>
@@ -4105,53 +4105,53 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="152"/>
       <c r="C2" s="152"/>
@@ -6617,10 +6617,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6628,10 +6628,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,10 +6639,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,10 +6650,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="150" t="s">
         <v>255</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,8 +6726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6770,7 +6770,7 @@
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
       <c r="F2" s="160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" s="161"/>
       <c r="H2" s="161"/>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" s="130">
         <v>10</v>
@@ -6890,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="130">
         <v>10</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="130">
         <v>7</v>
@@ -6962,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="130">
         <v>5</v>
@@ -6998,7 +6998,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H9" s="130">
         <v>7</v>
@@ -7072,7 +7072,9 @@
       <c r="C12" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="133">
+        <v>4</v>
+      </c>
       <c r="F12" s="128"/>
       <c r="G12" s="140"/>
       <c r="H12" s="130"/>
@@ -7094,7 +7096,9 @@
       <c r="C13" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="133">
+        <v>6</v>
+      </c>
       <c r="F13" s="128"/>
       <c r="G13" s="140"/>
       <c r="H13" s="130"/>
@@ -7116,7 +7120,9 @@
       <c r="C14" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="133">
+        <v>2</v>
+      </c>
       <c r="F14" s="128"/>
       <c r="G14" s="140"/>
       <c r="H14" s="130"/>
@@ -7136,9 +7142,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="133"/>
+        <v>288</v>
+      </c>
+      <c r="D15" s="133">
+        <v>4</v>
+      </c>
       <c r="F15" s="128"/>
       <c r="G15" s="140"/>
       <c r="H15" s="130"/>
@@ -7158,9 +7166,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="133"/>
+        <v>225</v>
+      </c>
+      <c r="D16" s="133">
+        <v>12</v>
+      </c>
       <c r="F16" s="128"/>
       <c r="G16" s="140"/>
       <c r="H16" s="130"/>
@@ -7180,9 +7190,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="133"/>
+        <v>226</v>
+      </c>
+      <c r="D17" s="133">
+        <v>17</v>
+      </c>
       <c r="F17" s="128"/>
       <c r="G17" s="140"/>
       <c r="H17" s="130"/>
@@ -7204,7 +7216,9 @@
       <c r="C18" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="133">
+        <v>3</v>
+      </c>
       <c r="F18" s="128"/>
       <c r="G18" s="140"/>
       <c r="H18" s="130"/>
@@ -7226,7 +7240,9 @@
       <c r="C19" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="133">
+        <v>15</v>
+      </c>
       <c r="F19" s="128"/>
       <c r="G19" s="140"/>
       <c r="H19" s="130"/>
@@ -7248,7 +7264,9 @@
       <c r="C20" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="133"/>
+      <c r="D20" s="133">
+        <v>5</v>
+      </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" s="124"/>
@@ -7267,7 +7285,9 @@
       <c r="C21" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="133">
+        <v>2</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" s="124"/>
@@ -7284,7 +7304,7 @@
       <c r="C22" s="155"/>
       <c r="D22" s="131">
         <f>SUM(D12:D21)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -7345,7 +7365,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="133"/>
     </row>
@@ -7357,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="133"/>
     </row>
@@ -7369,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" s="133"/>
     </row>
@@ -7441,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="141" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="133"/>
     </row>
@@ -7453,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="133"/>
     </row>
@@ -7465,7 +7485,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" s="133"/>
     </row>
@@ -7477,7 +7497,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D37" s="133"/>
     </row>
@@ -7489,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" s="133"/>
     </row>
@@ -7501,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" s="133"/>
     </row>
@@ -7684,7 +7704,7 @@
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D57" s="143">
         <f>SUM(D11,D22,D46,D56)</f>
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7711,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7739,11 +7759,11 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="147">
         <f>'Backlog Produto'!$D$57</f>
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>13</v>
@@ -7757,12 +7777,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
@@ -7771,7 +7791,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="15">
         <v>10</v>
@@ -7782,7 +7802,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="145">
         <f>B6*B7*2</f>
@@ -7794,23 +7814,23 @@
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="144">
         <f>B11/2</f>
-        <v>2.5499999999999998</v>
+        <v>6.05</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="146">
         <f>B4+(B4*B5)</f>
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>13</v>
@@ -7818,11 +7838,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="145">
         <f>B10/B8*2</f>
-        <v>5.0999999999999996</v>
+        <v>12.1</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>28</v>
@@ -7830,11 +7850,11 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="144">
         <f>B11/4</f>
-        <v>1.2749999999999999</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>52</v>
@@ -7862,7 +7882,7 @@
       </c>
       <c r="B16" s="5">
         <f>B10*B15</f>
-        <v>1020</v>
+        <v>2420</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -7887,11 +7907,11 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="148">
         <f>B16+B18</f>
-        <v>1020</v>
+        <v>2420</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -7910,17 +7930,17 @@
       </c>
       <c r="B21" s="7">
         <f>B19*B20</f>
-        <v>204</v>
+        <v>484</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="148">
         <f>B19+B21</f>
-        <v>1224</v>
+        <v>2904</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -7997,7 +8017,7 @@
       <c r="J2" s="172"/>
       <c r="K2" s="82">
         <f>Planejamento!$B$10</f>
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -8057,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="93">
         <v>44144</v>
@@ -8085,7 +8105,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -8093,17 +8113,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="93"/>
       <c r="E6" s="94">
         <v>6</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" s="93"/>
       <c r="H6" s="93"/>
@@ -8116,17 +8136,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="93"/>
       <c r="E7" s="94">
         <v>6</v>
       </c>
       <c r="F7" s="95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
@@ -8139,17 +8159,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="94">
         <v>7</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8162,17 +8182,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="93" t="s">
         <v>269</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>270</v>
       </c>
       <c r="D9" s="93"/>
       <c r="E9" s="94">
         <v>9</v>
       </c>
       <c r="F9" s="95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
@@ -9361,10 +9381,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="183"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -9476,137 +9496,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="189" t="s">
+      <c r="A41" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="189"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="185"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="185"/>
     </row>
     <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="186"/>
     </row>
     <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="191" t="s">
+      <c r="A43" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
     </row>
     <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="192"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="185"/>
-      <c r="K46" s="185"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="80"/>
-      <c r="C47" s="186" t="s">
+      <c r="C47" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="186"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
     </row>
     <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="179" t="s">
+      <c r="A48" s="184"/>
+      <c r="B48" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="179" t="s">
+      <c r="C48" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="179" t="s">
+      <c r="E48" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="179" t="s">
+      <c r="F48" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="179" t="s">
+      <c r="G48" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="180" t="s">
+      <c r="H48" s="191" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="181"/>
-      <c r="J48" s="181"/>
-      <c r="K48" s="181"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="192"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="179"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="179"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="187" t="s">
+      <c r="A49" s="184"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="188"/>
+      <c r="I49" s="183"/>
       <c r="J49" s="73" t="s">
         <v>129</v>
       </c>
@@ -9619,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C50" s="74">
         <v>44157</v>
@@ -9637,11 +9657,11 @@
       <c r="G50" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="177"/>
-      <c r="I50" s="178"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="190"/>
       <c r="J50" s="79"/>
       <c r="K50" s="79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="72" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9649,7 +9669,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C51" s="74">
         <v>44181</v>
@@ -9671,7 +9691,7 @@
       <c r="I51" s="78"/>
       <c r="J51" s="79"/>
       <c r="K51" s="79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9797,8 +9817,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="178"/>
+      <c r="H59" s="189"/>
+      <c r="I59" s="190"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -9813,13 +9833,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="178"/>
+      <c r="H60" s="189"/>
+      <c r="I60" s="190"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -9831,15 +9860,6 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9891,7 +9911,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="194"/>
       <c r="C1" s="194"/>
@@ -9910,13 +9930,13 @@
         <v>221</v>
       </c>
       <c r="B3" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="D3" s="89" t="s">
         <v>251</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9924,13 +9944,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="93">
         <v>44146</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10664,7 +10684,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="106" t="s">
         <v>147</v>
@@ -10694,13 +10714,13 @@
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="106" t="s">
         <v>148</v>
@@ -10724,13 +10744,13 @@
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="106" t="s">
         <v>94</v>
@@ -10751,13 +10771,13 @@
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="106" t="s">
         <v>94</v>
@@ -10786,13 +10806,13 @@
     </row>
     <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="106" t="s">
         <v>148</v>
@@ -10821,7 +10841,7 @@
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" s="106" t="s">
         <v>94</v>
@@ -11032,7 +11052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C1DDD-1728-409A-9089-3034EC6BD3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56A93553-3F54-4830-9096-7FC286F1FE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -20,13 +20,19 @@
     <sheet name="Riscos" sheetId="12" r:id="rId5"/>
     <sheet name="Mudanças" sheetId="17" r:id="rId6"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId7"/>
-    <sheet name="#Estimativa-APF#" sheetId="14" r:id="rId8"/>
-    <sheet name="#Planejamento-APF#" sheetId="16" r:id="rId9"/>
+    <sheet name="Sprint2" sheetId="18" r:id="rId8"/>
+    <sheet name="Sprint3" sheetId="19" r:id="rId9"/>
+    <sheet name="Sprint4" sheetId="20" r:id="rId10"/>
+    <sheet name="#Estimativa-APF#" sheetId="14" r:id="rId11"/>
+    <sheet name="#Planejamento-APF#" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Mudanças!$A$1:$D$13</definedName>
+    <definedName name="Restante" localSheetId="7">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</definedName>
+    <definedName name="Restante" localSheetId="8">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</definedName>
+    <definedName name="Restante" localSheetId="9">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</definedName>
     <definedName name="Restante">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</definedName>
-    <definedName name="Restante2" localSheetId="8">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
+    <definedName name="Restante2" localSheetId="11">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
     <definedName name="Restante2">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -58,6 +64,29 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Murakami Edson</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Considerando a estimativa e capacidade da equipe sugere-se o seguinte plajenamento.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -913,7 +942,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+11/11/2020</t>
         </r>
       </text>
     </comment>
@@ -985,6 +1014,435 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4E1403A9-DB2B-43B8-A5E0-F2AA43A4BC65}</author>
+    <author>Murakami Edson</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E1403A9-DB2B-43B8-A5E0-F2AA43A4BC65}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Essas tarefas devem vir do backlog do produto, conforme a priorização.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{43A1AF98-F342-4591-A1A1-10039B4840C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Horas Estimadas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A estimativa pode vir do Backlog do Produto ou ser refeita durante o planejamento do Sprint. 
+Porém, a estimativa inicial no Backlog do Produto não pode ser alterada. Caso contrário, não será possível calcular o percentual de erro da estimativa que deveria ser utilizado nos projetos futuros.
+Criar um histórico do percentual de erro da estimativa é muito importante para a maturidade do time e para aumentar a precisão das estimativas.
+(*) Desse modo, o lançamento das horas efetivamente gastas são muito importante para poder comparar estimado com realizado.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{9EBCCCEC-CD36-4F3D-9367-4748E405F23B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data de início do sprint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/11/2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{3792C47D-2628-4938-BB32-CD508CD66B99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">O esforço total do Sprint não pode ultrapassar a capacidade do time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="1" shapeId="0" xr:uid="{932C137A-857E-479A-835A-99BD87A8E73A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>I</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MPORTANTE:  Como criar planilha de monitoramento e controle do Sprint
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Crie uma nova planilha, altere o nome para SprintX (X=numero do sprint (Ex.: Sprint2) e copie o conteúdo para a nova planilha
+2. Selecione o gráfico, clique com o botão direito e selecione a opção Selecionar Dados
+3. Crie a fórmula antes e dê o nome Restante+número do sprint (Ex.: Restante2, para o Sprint2  e altere o nome da planilha na fórmula para Sprint2)
+4. Edite a série Restante e em "Valores da série" substitua pelo nome da fórmula "Restante2"
+Pronto!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={905AE307-341E-4D9D-96D6-A124F9306E20}</author>
+    <author>Murakami Edson</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{905AE307-341E-4D9D-96D6-A124F9306E20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Essas tarefas devem vir do backlog do produto, conforme a priorização.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{89197258-C810-444C-AF70-0F37E278A5E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Horas Estimadas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A estimativa pode vir do Backlog do Produto ou ser refeita durante o planejamento do Sprint. 
+Porém, a estimativa inicial no Backlog do Produto não pode ser alterada. Caso contrário, não será possível calcular o percentual de erro da estimativa que deveria ser utilizado nos projetos futuros.
+Criar um histórico do percentual de erro da estimativa é muito importante para a maturidade do time e para aumentar a precisão das estimativas.
+(*) Desse modo, o lançamento das horas efetivamente gastas são muito importante para poder comparar estimado com realizado.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{78A64AB5-D3A2-42EE-A49F-89396FF924E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data de início do sprint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{A0934F4D-BFE1-4738-AB44-042C5B219287}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">O esforço total do Sprint não pode ultrapassar a capacidade do time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="1" shapeId="0" xr:uid="{8C071C72-8788-45EA-A1FA-E464B19B94B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>I</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MPORTANTE:  Como criar planilha de monitoramento e controle do Sprint
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Crie uma nova planilha, altere o nome para SprintX (X=numero do sprint (Ex.: Sprint2) e copie o conteúdo para a nova planilha
+2. Selecione o gráfico, clique com o botão direito e selecione a opção Selecionar Dados
+3. Crie a fórmula antes e dê o nome Restante+número do sprint (Ex.: Restante2, para o Sprint2  e altere o nome da planilha na fórmula para Sprint2)
+4. Edite a série Restante e em "Valores da série" substitua pelo nome da fórmula "Restante2"
+Pronto!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={37B3A5E7-9006-4AEC-8DDD-5A5686B085BC}</author>
+    <author>Murakami Edson</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{37B3A5E7-9006-4AEC-8DDD-5A5686B085BC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Essas tarefas devem vir do backlog do produto, conforme a priorização.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{B6B312A5-E23D-45FF-A748-74B1B9F0661C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Horas Estimadas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A estimativa pode vir do Backlog do Produto ou ser refeita durante o planejamento do Sprint. 
+Porém, a estimativa inicial no Backlog do Produto não pode ser alterada. Caso contrário, não será possível calcular o percentual de erro da estimativa que deveria ser utilizado nos projetos futuros.
+Criar um histórico do percentual de erro da estimativa é muito importante para a maturidade do time e para aumentar a precisão das estimativas.
+(*) Desse modo, o lançamento das horas efetivamente gastas são muito importante para poder comparar estimado com realizado.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{F1214411-26E9-4F75-A27F-69D68E7497DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data de início do sprint</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{599544DA-E3A9-4DF5-B0D8-DC7E237A8ED3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">O esforço total do Sprint não pode ultrapassar a capacidade do time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="1" shapeId="0" xr:uid="{89C57749-ECC2-44F1-B85B-8DEF7D407129}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>I</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MPORTANTE:  Como criar planilha de monitoramento e controle do Sprint
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Crie uma nova planilha, altere o nome para SprintX (X=numero do sprint (Ex.: Sprint2) e copie o conteúdo para a nova planilha
+2. Selecione o gráfico, clique com o botão direito e selecione a opção Selecionar Dados
+3. Crie a fórmula antes e dê o nome Restante+número do sprint (Ex.: Restante2, para o Sprint2  e altere o nome da planilha na fórmula para Sprint2)
+4. Edite a série Restante e em "Valores da série" substitua pelo nome da fórmula "Restante2"
+Pronto!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murakami Edson</author>
@@ -1885,31 +2343,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Murakami Edson</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Considerando a estimativa e capacidade da equipe sugere-se o seguinte plajenamento.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="298">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2787,21 +3222,6 @@
     <t>Fazer Pedido</t>
   </si>
   <si>
-    <t>Entregar escopo e planejamento</t>
-  </si>
-  <si>
-    <t>Entregar casos de uso 01</t>
-  </si>
-  <si>
-    <t>Entregar casos de uso 02</t>
-  </si>
-  <si>
-    <t>Entregar casos de uso 03</t>
-  </si>
-  <si>
-    <t>Entregar casos de uso 04</t>
-  </si>
-  <si>
     <t>/12/2020</t>
   </si>
   <si>
@@ -2820,9 +3240,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>RM#001 - Exclusao casos de uso "manter dados" e "registra-se"</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
@@ -2860,20 +3277,67 @@
   </si>
   <si>
     <t>Especificar UC01-Manter Produtos(escolhido para testar a arquitetura)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INICIAÇÃO </t>
+  </si>
+  <si>
+    <t>/01/2021</t>
+  </si>
+  <si>
+    <t>Revisão (2.0</t>
+  </si>
+  <si>
+    <t>Em execução</t>
+  </si>
+  <si>
+    <t>RM#001 - Exclusao casos de uso "manter dados" e "registrar-se"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planejar o Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estudar tecnologias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preparar ambiente de desenvolvimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criar guia de emplementação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementar e testar arquitetura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aplicar checklist da fase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revisar planejamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manter Produtos(escolhido para testar arquitetura)</t>
+  </si>
+  <si>
+    <t>gerenciar balconistas</t>
+  </si>
+  <si>
+    <t>Balconista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3171,6 +3635,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3584,14 +4054,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4201,13 +4673,30 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda 2" xfId="5" xr:uid="{223E5040-0714-429E-AED4-B5FAB4510168}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
+    <cellStyle name="Vírgula 2" xfId="6" xr:uid="{D46D6D05-E20D-4DA2-A69E-06D74D7E8849}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -4446,7 +4935,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30/jan</c:v>
+                  <c:v>11/nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -4483,9 +4972,36 @@
               <c:f>[0]!Restante</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,7 +5054,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30/jan</c:v>
+                  <c:v>11/nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -4577,34 +5093,538 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>55</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.5</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>27.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.5</c:v>
+                  <c:v>23.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>20.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.5</c:v>
+                  <c:v>17.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>13.600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5</c:v>
+                  <c:v>10.200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>6.800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5</c:v>
+                  <c:v>3.4000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2172489379008766E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D65-48CA-9EE5-0F2855324CF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200030848"/>
+        <c:axId val="200036736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200030848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200036736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200036736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200030848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico BurnDown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Restante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint2!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Horas estimadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30/nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint2!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50CA-4CD1-9B69-EC3965F35CBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint2!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Horas estimadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30/nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint2!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4615,7 +5635,1015 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D65-48CA-9EE5-0F2855324CF5}"/>
+              <c16:uniqueId val="{00000001-50CA-4CD1-9B69-EC3965F35CBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200030848"/>
+        <c:axId val="200036736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200030848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200036736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200036736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200030848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico BurnDown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Restante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Horas estimadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30/jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9FC-48A9-BED4-8D983CB5670F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Horas estimadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30/jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9FC-48A9-BED4-8D983CB5670F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200030848"/>
+        <c:axId val="200036736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200030848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200036736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200036736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200030848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico BurnDown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint4!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Restante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint4!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Horas estimadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30/jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint4!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD3A-48A6-B16D-887D9AF03AAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint4!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint4!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Horas estimadas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30/jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint4!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD3A-48A6-B16D-887D9AF03AAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4862,7 +6890,1615 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5469,6 +9105,135 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51EF6B2-E6E7-4DA6-9632-305CC4C86082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBCEE72-9F3B-4E8C-A7AC-810C929B4900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0262F3-5233-4FBC-8A8A-96E0B316623E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -5880,7 +9645,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6572,6 +10337,30 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-07-11T12:05:52.80" personId="{4BA3E4D5-FB76-4039-BD95-D685A580FAAB}" id="{4E1403A9-DB2B-43B8-A5E0-F2AA43A4BC65}">
+    <text>Essas tarefas devem vir do backlog do produto, conforme a priorização.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-07-11T12:05:52.80" personId="{4BA3E4D5-FB76-4039-BD95-D685A580FAAB}" id="{905AE307-341E-4D9D-96D6-A124F9306E20}">
+    <text>Essas tarefas devem vir do backlog do produto, conforme a priorização.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-07-11T12:05:52.80" personId="{4BA3E4D5-FB76-4039-BD95-D685A580FAAB}" id="{37B3A5E7-9006-4AEC-8DDD-5A5686B085BC}">
+    <text>Essas tarefas devem vir do backlog do produto, conforme a priorização.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
@@ -6620,7 +10409,7 @@
         <v>252</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6722,12 +10511,1722 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF12C3F8-469A-4655-820D-E945B3342669}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="7" style="3" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="44">
+        <v>43130</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="122"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="122"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="39">
+        <f>SUM(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="39" t="str">
+        <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="39" t="str">
+        <f t="shared" ref="D12:K12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11), "")</f>
+        <v/>
+      </c>
+      <c r="E12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="39" t="str">
+        <f>IF(SUM(L2:L11)&gt;0,K12-SUM(L2:L11), "")</f>
+        <v/>
+      </c>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <f ca="1">OFFSET(Sprint4!$B$12,0,0,1,COUNT(Sprint4!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="42" t="e">
+        <f ca="1">B14/$B$13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="42" t="e">
+        <f ca="1">100%-(C14/$B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="42" t="e">
+        <f t="shared" ref="D15:L15" ca="1" si="2">100%-(D14/$B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="45">
+        <f>Planejamento!B8</f>
+        <v>20</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" customWidth="1"/>
+    <col min="13" max="13" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+    </row>
+    <row r="2" spans="1:23" s="103" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+    </row>
+    <row r="3" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="203" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+    </row>
+    <row r="4" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="204" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+    </row>
+    <row r="5" spans="1:23" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="205" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+    </row>
+    <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="199" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="D7" s="199" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="200"/>
+      <c r="G7" s="195" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="M7" s="199" t="s">
+        <v>169</v>
+      </c>
+      <c r="N7" s="200"/>
+    </row>
+    <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="102">
+        <v>2</v>
+      </c>
+      <c r="I9" s="102">
+        <v>0</v>
+      </c>
+      <c r="J9" s="102">
+        <v>0</v>
+      </c>
+      <c r="K9" s="105">
+        <f>(H9*4)+(I9*6)+(J9*8)</f>
+        <v>8</v>
+      </c>
+      <c r="M9" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="105">
+        <f>(H10*3)+(I10*4)+(J10*6)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="195" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="M11" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="N12" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="102">
+        <v>1</v>
+      </c>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="105">
+        <f>(H13*3)+(I13*4)+(J13*6)</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="110">
+        <v>4</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="105">
+        <f>(H14*4)+(I14*5)+(J14*7)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="106"/>
+      <c r="G15" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="102">
+        <v>1</v>
+      </c>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="105">
+        <f>(H15*3)+(I15*4)+(J15*6)</f>
+        <v>3</v>
+      </c>
+      <c r="M15" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="102"/>
+      <c r="B16" s="106"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="106"/>
+      <c r="G16" s="196" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="107">
+        <f>SUM(K9,K10,K13,K14,K15)</f>
+        <v>14</v>
+      </c>
+      <c r="M16" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="106"/>
+      <c r="M17" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="102"/>
+      <c r="B18" s="106"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="106"/>
+      <c r="M18" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="102"/>
+      <c r="B19" s="106"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="106"/>
+      <c r="M19" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="102"/>
+      <c r="B20" s="106"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="106"/>
+      <c r="M20" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="M21" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="M22" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="M23" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="111">
+        <f>SUM(N9:N22)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" s="107">
+        <f>(N23*0.01)+0.65</f>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" s="112">
+        <f>K16*N24</f>
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26" s="113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="M27" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="N27" s="115">
+        <f>N25*N26</f>
+        <v>194.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G7:K7"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"Simples,Média,Complexa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="201" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+    </row>
+    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="207" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="E3" s="194" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="134">
+        <f>'#Estimativa-APF#'!$N$27</f>
+        <v>194.74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="206" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="206"/>
+      <c r="N4" s="120"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="208"/>
+      <c r="F5" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="206"/>
+      <c r="N5" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="135">
+        <f>B4+(B4*B5)</f>
+        <v>214.214</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="208"/>
+      <c r="F6" s="116">
+        <f>B6*G6</f>
+        <v>10.710700000000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="116">
+        <f>B4*I6</f>
+        <v>38.948000000000008</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="116">
+        <f>B4*K6</f>
+        <v>126.58100000000002</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="L6" s="116">
+        <f>B4*M6</f>
+        <v>19.474000000000004</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="116"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="116">
+        <f>F6*G7</f>
+        <v>5.8908850000000008</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H7" s="116">
+        <f>H6*I7</f>
+        <v>11.684400000000002</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="116">
+        <f>J6*K7</f>
+        <v>15.189720000000001</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="L7" s="116">
+        <f>L6*M7</f>
+        <v>0.97370000000000023</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="N7" s="119">
+        <f>SUM(F7,H7,J7,L7)</f>
+        <v>33.738705000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="116">
+        <f>F6*G8</f>
+        <v>1.6066050000000001</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="116">
+        <f>H6*I8</f>
+        <v>7.7896000000000019</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="116">
+        <f>J6*K8</f>
+        <v>12.658100000000003</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="116">
+        <f>L6*M8</f>
+        <v>0.97370000000000023</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="119">
+        <f t="shared" ref="N8:N14" si="0">SUM(F8,H8,J8,L8)</f>
+        <v>23.028005000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="30">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="116">
+        <f>F6*G9</f>
+        <v>0.21421400000000002</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="116">
+        <f>H6*I9</f>
+        <v>7.7896000000000019</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="116">
+        <f>J6*K9</f>
+        <v>50.632400000000011</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="116">
+        <f>L6*M9</f>
+        <v>2.9211000000000005</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="N9" s="119">
+        <f t="shared" si="0"/>
+        <v>61.557314000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="11">
+        <f>(B7*B8)*B9</f>
+        <v>48</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="116">
+        <f>F6*G10</f>
+        <v>0.53553500000000009</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="116">
+        <f>H6*I10</f>
+        <v>3.1158400000000008</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="J10" s="116">
+        <f>J6*K10</f>
+        <v>12.658100000000003</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="116">
+        <f>L6*M10</f>
+        <v>1.9474000000000005</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="119">
+        <f t="shared" si="0"/>
+        <v>18.256875000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="46">
+        <f>B6/B10*2</f>
+        <v>8.9255833333333339</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="116">
+        <f>F6*G11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="116">
+        <f>H6*I11</f>
+        <v>0.77896000000000021</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="116">
+        <f>J6*K11</f>
+        <v>6.3290500000000014</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="116">
+        <f>L6*M11</f>
+        <v>1.9474000000000005</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="119">
+        <f t="shared" si="0"/>
+        <v>9.055410000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="46">
+        <f>B11/4</f>
+        <v>2.2313958333333335</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="117">
+        <f>SUM(F7:F11)</f>
+        <v>8.2472390000000004</v>
+      </c>
+      <c r="G12" s="54">
+        <f t="shared" ref="G12:M12" si="1">SUM(G7:G11)</f>
+        <v>0.77000000000000013</v>
+      </c>
+      <c r="H12" s="117">
+        <f t="shared" si="1"/>
+        <v>31.158400000000007</v>
+      </c>
+      <c r="I12" s="54">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="J12" s="117">
+        <f t="shared" si="1"/>
+        <v>97.467370000000017</v>
+      </c>
+      <c r="K12" s="54">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+      <c r="L12" s="117">
+        <f t="shared" si="1"/>
+        <v>8.763300000000001</v>
+      </c>
+      <c r="M12" s="54">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="N12" s="53"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="52">
+        <f>B11/B9</f>
+        <v>4.4627916666666669</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="116">
+        <f>F6*G13</f>
+        <v>0.32132100000000002</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="116">
+        <f>H6*I13</f>
+        <v>3.1158400000000008</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="J13" s="116">
+        <f>J6*K13</f>
+        <v>16.455530000000003</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="L13" s="116">
+        <f>L6*M13</f>
+        <v>5.8422000000000009</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="119">
+        <f t="shared" si="0"/>
+        <v>25.734891000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="116">
+        <f>F6*G14</f>
+        <v>2.1421400000000004</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="116">
+        <f>H6*I14</f>
+        <v>4.6737600000000006</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="J14" s="116">
+        <f>J6*K14</f>
+        <v>12.658100000000003</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="116">
+        <f>L6*M14</f>
+        <v>4.8685000000000009</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="N14" s="119">
+        <f t="shared" si="0"/>
+        <v>24.342500000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="117">
+        <f>SUM(F13:F14)</f>
+        <v>2.4634610000000006</v>
+      </c>
+      <c r="G15" s="54">
+        <f t="shared" ref="G15:M15" si="2">SUM(G13:G14)</f>
+        <v>0.23</v>
+      </c>
+      <c r="H15" s="117">
+        <f t="shared" si="2"/>
+        <v>7.7896000000000019</v>
+      </c>
+      <c r="I15" s="54">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="117">
+        <f t="shared" si="2"/>
+        <v>29.113630000000008</v>
+      </c>
+      <c r="K15" s="54">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+      <c r="L15" s="117">
+        <f t="shared" si="2"/>
+        <v>10.710700000000003</v>
+      </c>
+      <c r="M15" s="54">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N15" s="53"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="207"/>
+      <c r="C16" s="207"/>
+      <c r="E16" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="118">
+        <f>F12+F15</f>
+        <v>10.710700000000001</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" ref="G16:M16" si="3">G12+G15</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H16" s="118">
+        <f t="shared" si="3"/>
+        <v>38.948000000000008</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="118">
+        <f t="shared" si="3"/>
+        <v>126.58100000000002</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="118">
+        <f t="shared" si="3"/>
+        <v>19.474000000000004</v>
+      </c>
+      <c r="M16" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="121">
+        <f>SUM(N7:N11,N13,N14)</f>
+        <v>195.71370000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="16">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B6*B17</f>
+        <v>4284.28</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B18*B19</f>
+        <v>428.428</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="25">
+        <f>B18+B20</f>
+        <v>4712.7079999999996</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7">
+        <f>B21*B22</f>
+        <v>942.54160000000002</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="25">
+        <f>B21+B23</f>
+        <v>5655.2495999999992</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6848,7 +12347,7 @@
         <v>190</v>
       </c>
       <c r="D5" s="133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="127">
         <v>1</v>
@@ -6884,7 +12383,7 @@
         <v>188</v>
       </c>
       <c r="D6" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="127">
         <v>2</v>
@@ -6956,7 +12455,7 @@
         <v>189</v>
       </c>
       <c r="D8" s="133">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" s="127">
         <v>4</v>
@@ -6992,7 +12491,7 @@
         <v>193</v>
       </c>
       <c r="D9" s="133">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" s="127">
         <v>5</v>
@@ -7028,7 +12527,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="127"/>
       <c r="G10" s="140"/>
@@ -7049,7 +12548,7 @@
       <c r="C11" s="155"/>
       <c r="D11" s="131">
         <f>SUM(D5:D10)</f>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F11" s="128"/>
       <c r="G11" s="140"/>
@@ -7097,7 +12596,7 @@
         <v>223</v>
       </c>
       <c r="D13" s="133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="128"/>
       <c r="G13" s="140"/>
@@ -7142,10 +12641,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D15" s="133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="128"/>
       <c r="G15" s="140"/>
@@ -7169,7 +12668,7 @@
         <v>225</v>
       </c>
       <c r="D16" s="133">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F16" s="128"/>
       <c r="G16" s="140"/>
@@ -7193,7 +12692,7 @@
         <v>226</v>
       </c>
       <c r="D17" s="133">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F17" s="128"/>
       <c r="G17" s="140"/>
@@ -7217,7 +12716,7 @@
         <v>197</v>
       </c>
       <c r="D18" s="133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="128"/>
       <c r="G18" s="140"/>
@@ -7241,7 +12740,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="133">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" s="128"/>
       <c r="G19" s="140"/>
@@ -7265,7 +12764,7 @@
         <v>194</v>
       </c>
       <c r="D20" s="133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -7304,7 +12803,7 @@
       <c r="C22" s="155"/>
       <c r="D22" s="131">
         <f>SUM(D12:D21)</f>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -7704,7 +13203,7 @@
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D57" s="143">
         <f>SUM(D11,D22,D46,D56)</f>
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7731,8 +13230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7763,7 +13262,7 @@
       </c>
       <c r="B4" s="147">
         <f>'Backlog Produto'!$D$57</f>
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>13</v>
@@ -7818,7 +13317,7 @@
       </c>
       <c r="B9" s="144">
         <f>B11/2</f>
-        <v>6.05</v>
+        <v>3.8</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>246</v>
@@ -7830,7 +13329,7 @@
       </c>
       <c r="B10" s="146">
         <f>B4+(B4*B5)</f>
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>13</v>
@@ -7842,7 +13341,7 @@
       </c>
       <c r="B11" s="145">
         <f>B10/B8*2</f>
-        <v>12.1</v>
+        <v>7.6</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>28</v>
@@ -7854,7 +13353,7 @@
       </c>
       <c r="B12" s="144">
         <f>B11/4</f>
-        <v>3.0249999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>52</v>
@@ -7882,7 +13381,7 @@
       </c>
       <c r="B16" s="5">
         <f>B10*B15</f>
-        <v>2420</v>
+        <v>1520</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -7911,7 +13410,7 @@
       </c>
       <c r="B19" s="148">
         <f>B16+B18</f>
-        <v>2420</v>
+        <v>1520</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -7930,7 +13429,7 @@
       </c>
       <c r="B21" s="7">
         <f>B19*B20</f>
-        <v>484</v>
+        <v>304</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -7940,7 +13439,7 @@
       </c>
       <c r="B22" s="148">
         <f>B19+B21</f>
-        <v>2904</v>
+        <v>1824</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -7961,7 +13460,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8017,7 +13516,7 @@
       <c r="J2" s="172"/>
       <c r="K2" s="82">
         <f>Planejamento!$B$10</f>
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -8076,17 +13575,17 @@
       <c r="A5" s="91">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>264</v>
+      <c r="B5" s="211" t="s">
+        <v>283</v>
       </c>
       <c r="C5" s="93">
-        <v>44144</v>
+        <v>44146</v>
       </c>
       <c r="D5" s="93">
-        <v>44146</v>
+        <v>44160</v>
       </c>
       <c r="E5" s="94">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F5" s="95" t="s">
         <v>54</v>
@@ -8095,14 +13594,14 @@
         <v>44146</v>
       </c>
       <c r="H5" s="93">
-        <v>44146</v>
+        <v>44160</v>
       </c>
       <c r="I5" s="94">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J5" s="96">
         <f>E5-I5</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" s="97" t="s">
         <v>257</v>
@@ -8112,41 +13611,51 @@
       <c r="A6" s="91">
         <v>2</v>
       </c>
-      <c r="B6" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="93"/>
+      <c r="B6" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="93">
+        <v>44165</v>
+      </c>
+      <c r="D6" s="93">
+        <v>44188</v>
+      </c>
       <c r="E6" s="94">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="98"/>
+        <v>54</v>
+      </c>
+      <c r="G6" s="93">
+        <v>44165</v>
+      </c>
+      <c r="H6" s="93">
+        <v>44192</v>
+      </c>
+      <c r="I6" s="98">
+        <v>43</v>
+      </c>
       <c r="J6" s="99"/>
-      <c r="K6" s="97"/>
+      <c r="K6" s="97" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
         <v>3</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94">
-        <v>6</v>
-      </c>
+      <c r="B7" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="93">
+        <v>44189</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="94"/>
       <c r="F7" s="95" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
@@ -8158,18 +13667,18 @@
       <c r="A8" s="91">
         <v>4</v>
       </c>
-      <c r="B8" s="92" t="s">
-        <v>267</v>
+      <c r="B8" s="211" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94">
-        <v>7</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="94"/>
       <c r="F8" s="95" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8181,19 +13690,11 @@
       <c r="A9" s="91">
         <v>5</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>269</v>
-      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="93"/>
-      <c r="E9" s="94">
-        <v>9</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>270</v>
-      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="I9" s="98"/>
@@ -8282,18 +13783,18 @@
       <c r="D15" s="31"/>
       <c r="E15" s="49">
         <f>SUM(E5:E14)</f>
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="49">
         <f>SUM(I5:I14)</f>
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="J15" s="50">
         <f>SUM(J5:J14)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -8352,7 +13853,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9639,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C50" s="74">
         <v>44157</v>
@@ -9661,7 +15162,7 @@
       <c r="I50" s="190"/>
       <c r="J50" s="79"/>
       <c r="K50" s="79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="72" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9669,7 +15170,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C51" s="74">
         <v>44181</v>
@@ -9691,7 +15192,7 @@
       <c r="I51" s="78"/>
       <c r="J51" s="79"/>
       <c r="K51" s="79" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9897,7 +15398,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9944,13 +15445,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C4" s="93">
         <v>44146</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10062,7 +15563,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10084,7 +15585,7 @@
         <v>66</v>
       </c>
       <c r="C1" s="44">
-        <v>43130</v>
+        <v>44146</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>32</v>
@@ -10121,9 +15622,15 @@
       <c r="B2" s="15">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="15">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2</v>
+      </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -10137,9 +15644,11 @@
         <v>188</v>
       </c>
       <c r="B3" s="15">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -10155,12 +15664,16 @@
         <v>187</v>
       </c>
       <c r="B4" s="15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -10173,15 +15686,21 @@
         <v>189</v>
       </c>
       <c r="B5" s="15">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="15">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15">
+        <v>4</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -10191,7 +15710,7 @@
         <v>193</v>
       </c>
       <c r="B6" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -10200,7 +15719,9 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15">
+        <v>3</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
@@ -10209,7 +15730,7 @@
         <v>198</v>
       </c>
       <c r="B7" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -10218,8 +15739,12 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="15">
+        <v>2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10284,43 +15809,43 @@
       </c>
       <c r="B12" s="39">
         <f>SUM(B2:B11)</f>
-        <v>55</v>
-      </c>
-      <c r="C12" s="39" t="str">
+        <v>34</v>
+      </c>
+      <c r="C12" s="39">
         <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11), "")</f>
-        <v/>
-      </c>
-      <c r="D12" s="39" t="str">
+        <v>27</v>
+      </c>
+      <c r="D12" s="39">
         <f t="shared" ref="D12:K12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11), "")</f>
-        <v/>
-      </c>
-      <c r="E12" s="39" t="str">
+        <v>25</v>
+      </c>
+      <c r="E12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="39" t="str">
+        <v>20</v>
+      </c>
+      <c r="F12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="39" t="str">
+        <v>18</v>
+      </c>
+      <c r="G12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="39" t="str">
+        <v>14</v>
+      </c>
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="39" t="str">
+        <v>10</v>
+      </c>
+      <c r="I12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="39" t="str">
+        <v>7</v>
+      </c>
+      <c r="J12" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="39" t="str">
+        <v>2</v>
+      </c>
+      <c r="K12" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L12" s="39" t="str">
         <f>IF(SUM(L2:L11)&gt;0,K12-SUM(L2:L11), "")</f>
@@ -10334,47 +15859,47 @@
       </c>
       <c r="B13" s="36">
         <f>B12</f>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C13" s="37">
         <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
-        <v>49.5</v>
+        <v>30.6</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
-        <v>44</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="E13" s="37">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>23.800000000000004</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>20.400000000000006</v>
       </c>
       <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>27.5</v>
+        <v>17.000000000000007</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>13.600000000000007</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>10.200000000000006</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6.800000000000006</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>3.4000000000000061</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2172489379008766E-15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -10383,47 +15908,47 @@
       </c>
       <c r="B14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="K14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
-      </c>
-      <c r="L14" s="41">
+        <v>0</v>
+      </c>
+      <c r="L14" s="41" t="e">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>55</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10436,43 +15961,43 @@
       </c>
       <c r="C15" s="42">
         <f ca="1">100%-(C14/$B$13)</f>
-        <v>0</v>
+        <v>0.20588235294117652</v>
       </c>
       <c r="D15" s="42">
         <f t="shared" ref="D15:L15" ca="1" si="2">100%-(D14/$B$13)</f>
-        <v>0</v>
+        <v>0.26470588235294112</v>
       </c>
       <c r="E15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="F15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="H15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.70588235294117641</v>
       </c>
       <c r="I15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.79411764705882359</v>
       </c>
       <c r="J15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="K15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
+        <v>1</v>
+      </c>
+      <c r="L15" s="42" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10504,1278 +16029,900 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:W27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016246A-D8B5-4437-98BB-55C2D881EE20}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" customWidth="1"/>
-    <col min="13" max="13" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="7" style="3" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-    </row>
-    <row r="2" spans="1:23" s="103" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="202" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-    </row>
-    <row r="3" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="203" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-    </row>
-    <row r="4" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="204" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-    </row>
-    <row r="5" spans="1:23" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-    </row>
-    <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="199" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="200"/>
-      <c r="D7" s="199" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="200"/>
-      <c r="G7" s="195" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="M7" s="199" t="s">
-        <v>169</v>
-      </c>
-      <c r="N7" s="200"/>
-    </row>
-    <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="N8" s="105" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="102">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="44">
+        <v>44165</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="212" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="15">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="212" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="15">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="I9" s="102">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="212" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="15">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15">
+        <v>3</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="212" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="212" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="15">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15">
+        <v>6</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="210" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="213" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="39">
+        <f>SUM(B2:B11)</f>
+        <v>45</v>
+      </c>
+      <c r="C12" s="39">
+        <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11), "")</f>
+        <v>36</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" ref="D12:K12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11), "")</f>
+        <v>33</v>
+      </c>
+      <c r="E12" s="39">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="39">
+        <f>IF(SUM(L2:L11)&gt;0,K12-SUM(L2:L11), "")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="102">
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B12</f>
+        <v>45</v>
+      </c>
+      <c r="C13" s="37">
+        <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
+        <v>40.5</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
+        <v>36</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="105">
-        <f>(H9*4)+(I9*6)+(J9*8)</f>
-        <v>8</v>
-      </c>
-      <c r="M9" s="108" t="s">
-        <v>153</v>
-      </c>
-      <c r="N9" s="110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="105">
-        <f>(H10*3)+(I10*4)+(J10*6)</f>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>45</v>
+      </c>
+      <c r="C14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>36</v>
+      </c>
+      <c r="D14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>33</v>
+      </c>
+      <c r="E14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>29</v>
+      </c>
+      <c r="F14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>24</v>
+      </c>
+      <c r="G14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>21</v>
+      </c>
+      <c r="H14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>19</v>
+      </c>
+      <c r="I14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>15</v>
+      </c>
+      <c r="J14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>11</v>
+      </c>
+      <c r="K14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="41">
+        <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="N10" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="195" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="M11" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="N12" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="102">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="42">
+        <f ca="1">B14/$B$13</f>
         <v>1</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="105">
-        <f>(H13*3)+(I13*4)+(J13*6)</f>
-        <v>3</v>
-      </c>
-      <c r="M13" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="110">
-        <v>5</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="106"/>
-      <c r="G14" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="105">
-        <f>(H14*4)+(I14*5)+(J14*7)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="106"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="106"/>
-      <c r="G15" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="102">
+      <c r="C15" s="42">
+        <f ca="1">100%-(C14/$B$13)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" ref="D15:L15" ca="1" si="2">100%-(D14/$B$13)</f>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="E15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35555555555555551</v>
+      </c>
+      <c r="F15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L15" s="42">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="105">
-        <f>(H15*3)+(I15*4)+(J15*6)</f>
-        <v>3</v>
-      </c>
-      <c r="M15" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="106"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="106"/>
-      <c r="G16" s="196" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="107">
-        <f>SUM(K9,K10,K13,K14,K15)</f>
-        <v>14</v>
-      </c>
-      <c r="M16" s="108" t="s">
-        <v>159</v>
-      </c>
-      <c r="N16" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="106"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="106"/>
-      <c r="M17" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="106"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="106"/>
-      <c r="M18" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="N18" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="106"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="106"/>
-      <c r="M19" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="106"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="106"/>
-      <c r="M20" s="108" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M21" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M22" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M23" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="N23" s="111">
-        <f>SUM(N9:N22)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M24" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="N24" s="107">
-        <f>(N23*0.01)+0.65</f>
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="N25" s="112">
-        <f>K16*N24</f>
-        <v>15.120000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M26" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="N26" s="113">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M27" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" s="115">
-        <f>N25*N26</f>
-        <v>287.28000000000003</v>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="209">
+        <f>Planejamento!B8</f>
+        <v>20</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G7:K7"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"Simples,Média,Complexa"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22" xr:uid="{00000000-0002-0000-0700-000001000000}">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE33C3D-FEAA-4346-9A47-2F4D0E382F30}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="7" style="3" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-    </row>
-    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="207" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="E3" s="194" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="134">
-        <f>'#Estimativa-APF#'!$N$27</f>
-        <v>287.28000000000003</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="206" t="s">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="44">
+        <v>43130</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="122"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="122"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="39">
+        <f>SUM(B2:B11)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="206"/>
-      <c r="N4" s="120"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="C12" s="39" t="str">
+        <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="39" t="str">
+        <f t="shared" ref="D12:K12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11), "")</f>
+        <v/>
+      </c>
+      <c r="E12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="39" t="str">
+        <f>IF(SUM(L2:L11)&gt;0,K12-SUM(L2:L11), "")</f>
+        <v/>
+      </c>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B12</f>
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="208"/>
-      <c r="F5" s="206" t="s">
+      <c r="C13" s="37">
+        <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <f ca="1">OFFSET(Sprint3!$B$12,0,0,1,COUNT(Sprint3!$B$12:$L$12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="42" t="e">
+        <f ca="1">B14/$B$13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="42" t="e">
+        <f ca="1">100%-(C14/$B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="42" t="e">
+        <f t="shared" ref="D15:L15" ca="1" si="2">100%-(D14/$B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="45">
+        <f>Planejamento!B8</f>
+        <v>20</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="206"/>
-      <c r="N5" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="135">
-        <f>B4+(B4*B5)</f>
-        <v>287.28000000000003</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="116">
-        <f>B6*G6</f>
-        <v>14.364000000000003</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="116">
-        <f>B4*I6</f>
-        <v>57.45600000000001</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="116">
-        <f>B4*K6</f>
-        <v>186.73200000000003</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0.65</v>
-      </c>
-      <c r="L6" s="116">
-        <f>B4*M6</f>
-        <v>28.728000000000005</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="116"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="116">
-        <f>F6*G7</f>
-        <v>7.9002000000000017</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H7" s="116">
-        <f>H6*I7</f>
-        <v>17.236800000000002</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="J7" s="116">
-        <f>J6*K7</f>
-        <v>22.407840000000004</v>
-      </c>
-      <c r="K7" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="L7" s="116">
-        <f>L6*M7</f>
-        <v>1.4364000000000003</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="N7" s="119">
-        <f>SUM(F7,H7,J7,L7)</f>
-        <v>48.981240000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="15">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="116">
-        <f>F6*G8</f>
-        <v>2.1546000000000003</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="H8" s="116">
-        <f>H6*I8</f>
-        <v>11.491200000000003</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="116">
-        <f>J6*K8</f>
-        <v>18.673200000000005</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="116">
-        <f>L6*M8</f>
-        <v>1.4364000000000003</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="N8" s="119">
-        <f t="shared" ref="N8:N14" si="0">SUM(F8,H8,J8,L8)</f>
-        <v>33.755400000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="30">
-        <v>2</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="116">
-        <f>F6*G9</f>
-        <v>0.28728000000000004</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="H9" s="116">
-        <f>H6*I9</f>
-        <v>11.491200000000003</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="116">
-        <f>J6*K9</f>
-        <v>74.69280000000002</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="L9" s="116">
-        <f>L6*M9</f>
-        <v>4.3092000000000006</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="N9" s="119">
-        <f t="shared" si="0"/>
-        <v>90.780480000000026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="11">
-        <f>(B7*B8)*B9</f>
-        <v>80</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="116">
-        <f>F6*G10</f>
-        <v>0.71820000000000017</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="116">
-        <f>H6*I10</f>
-        <v>4.5964800000000006</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="J10" s="116">
-        <f>J6*K10</f>
-        <v>18.673200000000005</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="116">
-        <f>L6*M10</f>
-        <v>2.8728000000000007</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="N10" s="119">
-        <f t="shared" si="0"/>
-        <v>26.860680000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="46">
-        <f>B6/B10*2</f>
-        <v>7.1820000000000004</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="116">
-        <f>F6*G11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="116">
-        <f>H6*I11</f>
-        <v>1.1491200000000001</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="J11" s="116">
-        <f>J6*K11</f>
-        <v>9.3366000000000025</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="L11" s="116">
-        <f>L6*M11</f>
-        <v>2.8728000000000007</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="N11" s="119">
-        <f t="shared" si="0"/>
-        <v>13.358520000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="46">
-        <f>B11/4</f>
-        <v>1.7955000000000001</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="117">
-        <f>SUM(F7:F11)</f>
-        <v>11.060280000000002</v>
-      </c>
-      <c r="G12" s="54">
-        <f t="shared" ref="G12:M12" si="1">SUM(G7:G11)</f>
-        <v>0.77000000000000013</v>
-      </c>
-      <c r="H12" s="117">
-        <f t="shared" si="1"/>
-        <v>45.964800000000011</v>
-      </c>
-      <c r="I12" s="54">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="J12" s="117">
-        <f t="shared" si="1"/>
-        <v>143.78364000000005</v>
-      </c>
-      <c r="K12" s="54">
-        <f t="shared" si="1"/>
-        <v>0.77</v>
-      </c>
-      <c r="L12" s="117">
-        <f t="shared" si="1"/>
-        <v>12.927600000000002</v>
-      </c>
-      <c r="M12" s="54">
-        <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="52">
-        <f>B11/B9</f>
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="116">
-        <f>F6*G13</f>
-        <v>0.43092000000000008</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="H13" s="116">
-        <f>H6*I13</f>
-        <v>4.5964800000000006</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="J13" s="116">
-        <f>J6*K13</f>
-        <v>24.275160000000003</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0.13</v>
-      </c>
-      <c r="L13" s="116">
-        <f>L6*M13</f>
-        <v>8.6184000000000012</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="N13" s="119">
-        <f t="shared" si="0"/>
-        <v>37.920960000000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="116">
-        <f>F6*G14</f>
-        <v>2.8728000000000007</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="116">
-        <f>H6*I14</f>
-        <v>6.8947200000000013</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="J14" s="116">
-        <f>J6*K14</f>
-        <v>18.673200000000005</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="116">
-        <f>L6*M14</f>
-        <v>7.1820000000000013</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="N14" s="119">
-        <f t="shared" si="0"/>
-        <v>35.622720000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="117">
-        <f>SUM(F13:F14)</f>
-        <v>3.3037200000000007</v>
-      </c>
-      <c r="G15" s="54">
-        <f t="shared" ref="G15:M15" si="2">SUM(G13:G14)</f>
-        <v>0.23</v>
-      </c>
-      <c r="H15" s="117">
-        <f t="shared" si="2"/>
-        <v>11.491200000000003</v>
-      </c>
-      <c r="I15" s="54">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="J15" s="117">
-        <f t="shared" si="2"/>
-        <v>42.948360000000008</v>
-      </c>
-      <c r="K15" s="54">
-        <f t="shared" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="L15" s="117">
-        <f t="shared" si="2"/>
-        <v>15.800400000000003</v>
-      </c>
-      <c r="M15" s="54">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N15" s="53"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="207" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
-      <c r="E16" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="118">
-        <f>F12+F15</f>
-        <v>14.364000000000003</v>
-      </c>
-      <c r="G16" s="28">
-        <f t="shared" ref="G16:M16" si="3">G12+G15</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="H16" s="118">
-        <f t="shared" si="3"/>
-        <v>57.456000000000017</v>
-      </c>
-      <c r="I16" s="28">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="118">
-        <f t="shared" si="3"/>
-        <v>186.73200000000006</v>
-      </c>
-      <c r="K16" s="28">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="118">
-        <f t="shared" si="3"/>
-        <v>28.728000000000005</v>
-      </c>
-      <c r="M16" s="28">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="121">
-        <f>SUM(N7:N11,N13,N14)</f>
-        <v>287.28000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="16">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <f>B6*B17</f>
-        <v>5745.6</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6">
-        <f>B18*B19</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="25">
-        <f>B18+B20</f>
-        <v>5745.6</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7">
-        <f>B21*B22</f>
-        <v>1149.1200000000001</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="25">
-        <f>B21+B23</f>
-        <v>6894.72</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="1"/>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Planejamento e Controle do Projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Área de Trabalho\Healthy_Delivery\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56A93553-3F54-4830-9096-7FC286F1FE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F657404D-868D-4D03-9060-1214D2ED1F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="296">
   <si>
     <t>Iniciação</t>
   </si>
@@ -3222,9 +3222,6 @@
     <t>Fazer Pedido</t>
   </si>
   <si>
-    <t>/12/2020</t>
-  </si>
-  <si>
     <t>Planejado</t>
   </si>
   <si>
@@ -3280,9 +3277,6 @@
   </si>
   <si>
     <t xml:space="preserve">INICIAÇÃO </t>
-  </si>
-  <si>
-    <t>/01/2021</t>
   </si>
   <si>
     <t>Revisão (2.0</t>
@@ -3328,14 +3322,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="45" x14ac:knownFonts="1">
     <font>
@@ -4060,8 +4052,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4495,184 +4487,6 @@
     <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -4687,6 +4501,184 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10377,18 +10369,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="157" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -10409,7 +10401,7 @@
         <v>252</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10937,7 +10929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -10960,116 +10952,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="206" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
     </row>
     <row r="2" spans="1:23" s="103" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
     </row>
     <row r="3" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
     </row>
     <row r="4" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
     </row>
     <row r="5" spans="1:23" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="210" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
     </row>
     <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="B7" s="205"/>
+      <c r="D7" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="G7" s="195" t="s">
+      <c r="E7" s="205"/>
+      <c r="G7" s="200" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="M7" s="199" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="M7" s="204" t="s">
         <v>169</v>
       </c>
-      <c r="N7" s="200"/>
+      <c r="N7" s="205"/>
     </row>
     <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
@@ -11114,7 +11106,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="106" t="s">
         <v>147</v>
@@ -11144,13 +11136,13 @@
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="106" t="s">
         <v>148</v>
@@ -11174,24 +11166,24 @@
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="195" t="s">
+      <c r="G11" s="200" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
       <c r="M11" s="108" t="s">
         <v>155</v>
       </c>
@@ -11201,13 +11193,13 @@
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="106" t="s">
         <v>94</v>
@@ -11236,13 +11228,13 @@
     </row>
     <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="106" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="106" t="s">
         <v>148</v>
@@ -11271,13 +11263,13 @@
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="106" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E14" s="106" t="s">
         <v>94</v>
@@ -11301,7 +11293,7 @@
     </row>
     <row r="15" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B15" s="106" t="s">
         <v>94</v>
@@ -11332,12 +11324,12 @@
       <c r="B16" s="106"/>
       <c r="D16" s="102"/>
       <c r="E16" s="106"/>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="201" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203"/>
       <c r="K16" s="107">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
@@ -11490,7 +11482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -11513,42 +11505,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="206" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="E3" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -11561,25 +11553,25 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206" t="s">
+      <c r="G4" s="211"/>
+      <c r="H4" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206" t="s">
+      <c r="I4" s="211"/>
+      <c r="J4" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206" t="s">
+      <c r="K4" s="211"/>
+      <c r="L4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="206"/>
+      <c r="M4" s="211"/>
       <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -11592,23 +11584,23 @@
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="208"/>
-      <c r="F5" s="206" t="s">
+      <c r="E5" s="213"/>
+      <c r="F5" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206" t="s">
+      <c r="G5" s="211"/>
+      <c r="H5" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206" t="s">
+      <c r="I5" s="211"/>
+      <c r="J5" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206" t="s">
+      <c r="K5" s="211"/>
+      <c r="L5" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="206"/>
+      <c r="M5" s="211"/>
       <c r="N5" s="27" t="s">
         <v>181</v>
       </c>
@@ -11624,7 +11616,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="208"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="116">
         <f>B6*G6</f>
         <v>10.710700000000001</v>
@@ -12056,11 +12048,11 @@
       <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="212"/>
       <c r="E16" s="27" t="s">
         <v>182</v>
       </c>
@@ -12225,7 +12217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -12245,38 +12237,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="F1" s="156" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="F1" s="161" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="F2" s="160" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="F2" s="165" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="138" t="s">
@@ -12297,20 +12289,20 @@
       <c r="G3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="131" t="s">
         <v>12</v>
       </c>
@@ -12541,11 +12533,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="131">
         <f>SUM(D5:D10)</f>
         <v>33</v>
@@ -12641,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="133">
         <v>2</v>
@@ -12796,11 +12788,11 @@
       <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="131">
         <f>SUM(D12:D21)</f>
         <v>43</v>
@@ -13073,11 +13065,11 @@
       <c r="D45" s="133"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="155"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
       <c r="D46" s="131">
         <f>SUM(D23:D45)</f>
         <v>0</v>
@@ -13192,9 +13184,9 @@
       <c r="D55" s="133"/>
     </row>
     <row r="56" spans="1:4" ht="12" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="155"/>
+      <c r="A56" s="158"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
       <c r="D56" s="131">
         <f>SUM(D47:D55)</f>
         <v>0</v>
@@ -13242,19 +13234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
     </row>
     <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -13360,11 +13352,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -13459,8 +13451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13477,43 +13469,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="172" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="172"/>
+      <c r="B2" s="177"/>
       <c r="C2" s="82" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="169"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="83" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="170" t="s">
+      <c r="G2" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="177"/>
       <c r="K2" s="82">
         <f>Planejamento!$B$10</f>
         <v>76</v>
@@ -13522,17 +13514,17 @@
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="85"/>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="86"/>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="176"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
       <c r="J3" s="87"/>
       <c r="K3" s="88"/>
     </row>
@@ -13575,8 +13567,8 @@
       <c r="A5" s="91">
         <v>1</v>
       </c>
-      <c r="B5" s="211" t="s">
-        <v>283</v>
+      <c r="B5" s="153" t="s">
+        <v>282</v>
       </c>
       <c r="C5" s="93">
         <v>44146</v>
@@ -13611,7 +13603,7 @@
       <c r="A6" s="91">
         <v>2</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="153" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="93">
@@ -13637,25 +13629,25 @@
       </c>
       <c r="J6" s="99"/>
       <c r="K6" s="97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
         <v>3</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="153" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="93">
         <v>44189</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>284</v>
+      <c r="D7" s="93">
+        <v>44208</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
@@ -13667,18 +13659,18 @@
       <c r="A8" s="91">
         <v>4</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>284</v>
+      <c r="C8" s="93">
+        <v>43843</v>
+      </c>
+      <c r="D8" s="93">
+        <v>44223</v>
       </c>
       <c r="E8" s="94"/>
       <c r="F8" s="95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -14693,19 +14685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -14882,10 +14874,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="178"/>
+      <c r="E33" s="188"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -14997,97 +14989,97 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="185" t="s">
+      <c r="A41" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
     </row>
     <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
+      <c r="K42" s="195"/>
     </row>
     <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187" t="s">
+      <c r="A43" s="196" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="187"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
     </row>
     <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188" t="s">
+      <c r="A44" s="197" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="188"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="197"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="197"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="179" t="s">
+      <c r="A46" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+      <c r="K46" s="190"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="80"/>
-      <c r="C47" s="181" t="s">
+      <c r="C47" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="191"/>
     </row>
     <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="184"/>
@@ -15109,12 +15101,12 @@
       <c r="G48" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="191" t="s">
+      <c r="H48" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="192"/>
-      <c r="J48" s="192"/>
-      <c r="K48" s="192"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="186"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="184"/>
@@ -15124,10 +15116,10 @@
       <c r="E49" s="184"/>
       <c r="F49" s="184"/>
       <c r="G49" s="184"/>
-      <c r="H49" s="182" t="s">
+      <c r="H49" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="183"/>
+      <c r="I49" s="193"/>
       <c r="J49" s="73" t="s">
         <v>129</v>
       </c>
@@ -15140,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C50" s="74">
         <v>44157</v>
@@ -15158,11 +15150,11 @@
       <c r="G50" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="189"/>
-      <c r="I50" s="190"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="183"/>
       <c r="J50" s="79"/>
       <c r="K50" s="79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="72" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15170,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="74">
         <v>44181</v>
@@ -15192,7 +15184,7 @@
       <c r="I51" s="78"/>
       <c r="J51" s="79"/>
       <c r="K51" s="79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15318,8 +15310,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="189"/>
-      <c r="I59" s="190"/>
+      <c r="H59" s="182"/>
+      <c r="I59" s="183"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -15334,22 +15326,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="190"/>
+      <c r="H60" s="182"/>
+      <c r="I60" s="183"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -15361,6 +15344,15 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -15411,20 +15403,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="173"/>
+      <c r="D2" s="178"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="89" t="s">
@@ -15445,13 +15437,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="93">
         <v>44146</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -16086,8 +16078,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
-        <v>288</v>
+      <c r="A2" s="154" t="s">
+        <v>286</v>
       </c>
       <c r="B2" s="15">
         <v>5</v>
@@ -16106,8 +16098,8 @@
       <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="212" t="s">
-        <v>289</v>
+      <c r="A3" s="154" t="s">
+        <v>287</v>
       </c>
       <c r="B3" s="15">
         <v>7</v>
@@ -16128,8 +16120,8 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="212" t="s">
-        <v>290</v>
+      <c r="A4" s="154" t="s">
+        <v>288</v>
       </c>
       <c r="B4" s="15">
         <v>6</v>
@@ -16150,8 +16142,8 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="212" t="s">
-        <v>295</v>
+      <c r="A5" s="154" t="s">
+        <v>293</v>
       </c>
       <c r="B5" s="15">
         <v>6</v>
@@ -16172,8 +16164,8 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="212" t="s">
-        <v>291</v>
+      <c r="A6" s="154" t="s">
+        <v>289</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
@@ -16192,8 +16184,8 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="212" t="s">
-        <v>292</v>
+      <c r="A7" s="154" t="s">
+        <v>290</v>
       </c>
       <c r="B7" s="15">
         <v>14</v>
@@ -16216,8 +16208,8 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="210" t="s">
-        <v>293</v>
+      <c r="A8" s="152" t="s">
+        <v>291</v>
       </c>
       <c r="B8" s="15">
         <v>2</v>
@@ -16236,8 +16228,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="213" t="s">
-        <v>294</v>
+      <c r="A9" s="155" t="s">
+        <v>292</v>
       </c>
       <c r="B9" s="15">
         <v>3</v>
@@ -16484,7 +16476,7 @@
       <c r="A16" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="209">
+      <c r="B16" s="151">
         <f>Planejamento!B8</f>
         <v>20</v>
       </c>
